--- a/similarities/split_global/harmonic_similarity_timestamps_128.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_128.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,738 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+          <t>('0:00:00.980000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:58.440000', '0:02:02')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=0.98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'F#:min'], ['A', 'D', 'A']]</t>
+          <t>['A', 'D', 'A', 'B:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'Bb:maj', 'G:min'], ['Bb/3', 'Eb:maj', 'Bb/3']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj', 'A:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.440395', '0:00:08.010228'), ('0:01:22.290863', '0:01:33.575761')]</t>
+          <t>('0:01:10.583424', '0:01:20.010725')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:45.697000', '0:01:02.760000'), ('0:00:38.041000', '0:00:42.375000')]</t>
+          <t>('0:00:21.580000', '0:00:30.480000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=0.440395', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-48#t=82.290863']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=70.583424</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=45.697', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>jaah_9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:7', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:32.080000', '0:00:45.580000')]</t>
+          <t>('0:00:46.390000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:33.270000')]</t>
+          <t>('0:00:50.360000', '0:00:57.040000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=32.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=46.39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.500000', '0:00:26.200000'), ('0:01:19.040000', '0:01:31.180000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=2.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-136#t=79.04']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_33</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['E:min7', 'A:7', 'D:min7', 'G:7']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:min7', 'Gb:7']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:47.440000')]</t>
+          <t>('0:00:18.600000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+          <t>('0:00:01.210000', '0:00:03.150000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=18.6</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-33#t=1.21</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:06.260000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:01:37.880000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-115#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E/5', 'F#/4', 'B']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C', 'D', 'G']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:02:06.195000', '0:02:11.396000')]</t>
+          <t>('0:00:10.820000', '0:00:22.920000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:06.126439', '0:00:09.980952')]</t>
+          <t>('0:00:02.300000', '0:00:09.880000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-3#t=6.126439']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000'), ('0:01:14.800000', '0:01:21.060000'), ('0:00:35.140000', '0:00:39.900000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:02.640000', '0:00:07.300000'), ('0:02:10.840000', '0:02:15.980000'), ('0:00:37.940000', '0:00:42.840000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=74.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=35.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>isophonics_81</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B', 'E/5', 'B', 'E/5']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:00:55.629773', '0:01:10.444104')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:17.560000', '0:00:38.640000')]</t>
+          <t>('0:02:23.580000', '0:02:29.120000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-81#t=55.629773</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_58</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:00:37.960000', '0:00:44.800000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_283</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_241</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['A:min', 'D', 'G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:30.378072', '0:00:38.911405')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:45', '0:01:48.240000')]</t>
+          <t>('0:01:30.971000', '0:01:36.810000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-283#t=30.378072</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=90.971</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>isophonics_193</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>isophonics_12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['Eb', 'Bb', 'Eb']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D/5', 'A/3', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:19.980000', '0:01:33.600000')]</t>
+          <t>('0:00:08.359000', '0:00:13.688000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:21.740249', '0:00:26.767369')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=79.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=8.359</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-12#t=21.740249</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab:7', 'Db']]</t>
+          <t>['B:maj', 'E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['G', 'C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:31.460000', '0:01:37.740000')]</t>
+          <t>('0:00:38.795000', '0:00:47.506000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:05.440000', '0:00:14.410000')]</t>
+          <t>('0:01:23.738000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=91.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=38.795</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-43#t=5.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=83.738</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:24.760000', '0:00:32.420000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:20.045192', '0:00:25.141972')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-227#t=20.045192']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj']]</t>
+          <t>['F#:maj', 'C#:maj', 'F#:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:00:12.921927', '0:00:21.908049')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:01.140000', '0:00:05.100000')]</t>
+          <t>('0:00:46.560000', '0:00:49.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=12.921927</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=1.14']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
